--- a/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.239</v>
+        <v>17.046</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.826</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.974</v>
+        <v>10.571</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.906</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.177</v>
+        <v>6.006</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.30237979692705</v>
+        <v>16.46665417539625</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.30179498086512</v>
+        <v>20.15911305690338</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.14459152601927</v>
+        <v>20.69473872405733</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-5.53311444209157</v>
+        <v>-2.244826116083548</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.33317216432469</v>
+        <v>21.99035517979194</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.32043222350814</v>
+        <v>24.03636476476596</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.406977307672758</v>
+        <v>1.342183354536786</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.50720457569519</v>
+        <v>33.93545680876132</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.29764123134598</v>
+        <v>32.96463118480479</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40.55189528029477</v>
+        <v>36.52873923480028</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47.62623698559395</v>
+        <v>42.13592453971626</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>49.76961053195947</v>
+        <v>44.45312804785309</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.38860534334915</v>
+        <v>14.69291766762673</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.80315645516256</v>
+        <v>34.37383804688965</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>44.3237911264439</v>
+        <v>37.63248742395394</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.71549049033479</v>
+        <v>20.02554638495709</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39.12762770677648</v>
+        <v>39.40547310661731</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48.57522431661003</v>
+        <v>45.08334100293079</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.51316182467896</v>
+        <v>6.040877992858849</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>38.77643343506789</v>
+        <v>34.49524282780889</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>47.71465378898151</v>
+        <v>45.32372544978234</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.4609537772296</v>
+        <v>10.82744659657559</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>57.600199185497</v>
+        <v>58.91584487471203</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>67.83159352085841</v>
+        <v>72.61277964439358</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.12363842808504</v>
+        <v>63.02712341564672</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>75.22498901750083</v>
+        <v>74.44027660293284</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.55171608741155</v>
+        <v>80.4303948439036</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.19485162791338</v>
+        <v>23.83761860185151</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.08742202748265</v>
+        <v>72.62606255992245</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>79.67295428699745</v>
+        <v>81.14772039600939</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.78145106688186</v>
+        <v>28.23440348409698</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.79030137231938</v>
+        <v>50.11410875147162</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>57.25954104486847</v>
+        <v>54.70952241607731</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.81087864148807</v>
+        <v>9.795030492441427</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49.87941783320633</v>
+        <v>44.83498501369449</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>56.42940410571784</v>
+        <v>54.39396852826162</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19.58487188838282</v>
+        <v>16.57302784361733</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.12048204537891</v>
+        <v>74.88597826596117</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>80.7402208458352</v>
+        <v>81.76144033393311</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>87.87648833325748</v>
+        <v>91.2093530362651</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>98.30548015718527</v>
+        <v>99.74991535480726</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103.7102853184547</v>
+        <v>103.9448481461535</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.12976051204349</v>
+        <v>38.19095339875332</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>94.89901800123627</v>
+        <v>94.24492252678783</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>99.026449824861</v>
+        <v>98.77166171179095</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.0598980159528</v>
+        <v>10.58011268193152</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.25402117552849</v>
+        <v>39.33212935352305</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>45.62885349599928</v>
+        <v>43.16041742282984</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.626677390899257</v>
+        <v>1.815195212458569</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>45.3004647647044</v>
+        <v>46.76900819133724</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50.85533486948161</v>
+        <v>50.46126386610649</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.949817170031874</v>
+        <v>2.512345003308369</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>65.99954271294959</v>
+        <v>68.83012224682889</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.32346589177293</v>
+        <v>71.99487274279105</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62.92406201018494</v>
+        <v>64.59903710947169</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>71.35989615269575</v>
+        <v>73.69689773585139</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>72.40057413110077</v>
+        <v>74.82193515271476</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.54470322345708</v>
+        <v>12.95080328235598</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>60.13873071663248</v>
+        <v>65.57945936440063</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>65.16955924042729</v>
+        <v>69.33796981655283</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.09751785513571</v>
+        <v>11.88639996668802</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.9484305667056</v>
+        <v>43.42893868335288</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>52.08950931795275</v>
+        <v>47.15549658707229</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.886933171702214</v>
+        <v>3.677345787152245</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.10517143759017</v>
+        <v>41.51801283661163</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>50.69231836309402</v>
+        <v>51.19473881939869</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>9.900782377850312</v>
+        <v>6.060710515583239</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>63.43318834187396</v>
+        <v>66.15626148740162</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>74.79754091347998</v>
+        <v>79.51686149090489</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>62.23233639927055</v>
+        <v>64.91913956742106</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>74.12064523531194</v>
+        <v>76.73813207251203</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77.32517124200258</v>
+        <v>80.12903758014983</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.78027264152776</v>
+        <v>13.88492532685367</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>72.13559797207628</v>
+        <v>76.93772689523212</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>77.0315782898614</v>
+        <v>81.50867560779156</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.21318878370392</v>
+        <v>12.76751291273473</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>52.04966372953338</v>
+        <v>49.14925215704418</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>58.15650983300421</v>
+        <v>53.51942229012565</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7.572789645820594</v>
+        <v>2.273159335817347</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>51.53620652994965</v>
+        <v>50.5764237207869</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.97352313641724</v>
+        <v>59.31406334911083</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.55884759254791</v>
+        <v>6.120363913090586</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>79.08928545677693</v>
+        <v>80.38712812551356</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>88.77481700898971</v>
+        <v>90.74396710681434</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>86.71011448319041</v>
+        <v>90.49526221125268</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>99.12711892587875</v>
+        <v>101.5945779656731</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100.8558199271093</v>
+        <v>103.0968717858057</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.19596133185684</v>
+        <v>20.42389732935272</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>91.51660474324477</v>
+        <v>94.89328259813465</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>93.52094308425174</v>
+        <v>96.26937112038485</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.97447305696992</v>
+        <v>27.87549865265378</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.27160272099006</v>
+        <v>43.27706841795126</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.90053676797662</v>
+        <v>45.26742611366301</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.49919953693124</v>
+        <v>7.516525903365739</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.96712352203136</v>
+        <v>47.61830262506088</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.7059186778426</v>
+        <v>49.19875021920224</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.92917387061097</v>
+        <v>8.754589512477573</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>61.66844366956103</v>
+        <v>69.83217087417839</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>60.02961816107262</v>
+        <v>65.85112798507336</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>60.83578446162316</v>
+        <v>64.71377243480225</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>71.70310640815852</v>
+        <v>76.55898315990731</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>70.44863220875953</v>
+        <v>74.35849895430088</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.75204630738866</v>
+        <v>30.41561678917966</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>61.00943429120686</v>
+        <v>66.09212624813085</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>63.36933819051413</v>
+        <v>67.19691859894274</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.70477136784924</v>
+        <v>25.93355436235431</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>49.45163965010798</v>
+        <v>50.05755115280883</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>55.72387825969014</v>
+        <v>51.75995675643602</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.53102252401125</v>
+        <v>7.037716191544291</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.86421217163588</v>
+        <v>47.29921151215648</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>51.59950427391344</v>
+        <v>53.02184071399753</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.92984192410917</v>
+        <v>9.346519200752692</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>66.63586778905344</v>
+        <v>72.71406049252354</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>74.24952022568478</v>
+        <v>80.1772306354429</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>66.06378285121542</v>
+        <v>69.68315544304339</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>79.35714559500384</v>
+        <v>82.2765241858566</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>78.85963419454032</v>
+        <v>82.03191104037913</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.79394772203825</v>
+        <v>29.72296256539016</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>74.50807548952453</v>
+        <v>78.8314728214558</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>76.48174440260418</v>
+        <v>80.20219323617741</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.0730778785339</v>
+        <v>29.16749799333942</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>58.79404898887496</v>
+        <v>55.25506525756771</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>62.59128419438355</v>
+        <v>55.89671762162578</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.51594717605978</v>
+        <v>8.104982148737363</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>55.22442038665493</v>
+        <v>58.70506381675387</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>61.38024849364945</v>
+        <v>60.80458672185015</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>17.03823726738838</v>
+        <v>10.82427737976737</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>80.89447758929695</v>
+        <v>87.30032625135641</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>87.8101117894191</v>
+        <v>87.80920726096485</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>92.2786919524391</v>
+        <v>95.22495791758516</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>104.5298178355622</v>
+        <v>101.0566988585937</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>104.0276982136096</v>
+        <v>104.4553740988315</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.7778153506273</v>
+        <v>39.13126484069551</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>96.11514211884588</v>
+        <v>99.77321142720928</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>97.23759272631018</v>
+        <v>97.12228450343468</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.63811919686895</v>
+        <v>17.26416213627066</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.41883895095648</v>
+        <v>22.21037391807701</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.2945439070603</v>
+        <v>22.75130941575756</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.700975064662142</v>
+        <v>-1.258954902083801</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.30368779467494</v>
+        <v>23.13463958321082</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.4899916273343</v>
+        <v>25.04177613382092</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.496741082393623</v>
+        <v>5.72633577915224</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.85948219359067</v>
+        <v>34.55530140688526</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.6252438187141</v>
+        <v>34.07619119460042</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.91773932776458</v>
+        <v>38.63976037303198</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>49.67054609176228</v>
+        <v>43.81434331936352</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>55.79630633181438</v>
+        <v>47.97557836481226</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.5854023297166</v>
+        <v>49.65226817983113</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>60.29644182354883</v>
+        <v>67.85316175159424</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.67380131184693</v>
+        <v>66.93263271228494</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>21.07935052415311</v>
+        <v>21.11716611658803</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.79368339761059</v>
+        <v>41.31358399311605</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>47.62158734505822</v>
+        <v>49.81008351145607</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.23939345231218</v>
+        <v>7.802167129040303</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>40.18144683324026</v>
+        <v>40.9919744670749</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>48.99712623672654</v>
+        <v>54.05193439145224</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.36385474088521</v>
+        <v>16.27011696112843</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>55.14910478684845</v>
+        <v>59.35354861758658</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>65.53971546322077</v>
+        <v>74.98196168100814</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>56.81291735590926</v>
+        <v>59.88184420955664</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>67.52787616760868</v>
+        <v>68.466843302309</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>73.59413370032694</v>
+        <v>78.54636698732131</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.68707023782278</v>
+        <v>31.53133098697447</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>72.81806629589377</v>
+        <v>76.13810759876549</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>77.66790942143572</v>
+        <v>82.8559001706529</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.17809036527017</v>
+        <v>29.96861534909423</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>50.3386589983954</v>
+        <v>50.50353698811347</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>55.57350853217966</v>
+        <v>54.97515944154849</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.61992353743747</v>
+        <v>10.37929784786745</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>48.4910800200599</v>
+        <v>48.48421315669564</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>55.75650587969014</v>
+        <v>57.16895959920936</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.80101413021466</v>
+        <v>20.91720253388656</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>71.07040185863431</v>
+        <v>75.25397555305345</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>78.57598192478588</v>
+        <v>82.16174123332124</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>84.07840193950359</v>
+        <v>85.2594628512372</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>90.37847202575085</v>
+        <v>90.68916642804189</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>98.91039279022868</v>
+        <v>100.0643894702226</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.0238987384383</v>
+        <v>47.24957524175983</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>92.44909675923006</v>
+        <v>95.53141974905188</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>97.02287627771562</v>
+        <v>98.41921596370528</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.40504161914483</v>
+        <v>28.63049367941464</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.50680408608279</v>
+        <v>48.34126636266589</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.10651598399826</v>
+        <v>44.52741041039953</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.388801363187898</v>
+        <v>8.301116189402869</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>45.77613897272087</v>
+        <v>50.40462495745543</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>47.67705061968673</v>
+        <v>49.83738041589547</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.94563030038977</v>
+        <v>13.09639740098841</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>65.17954470660091</v>
+        <v>74.45479383644866</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>62.2530257935732</v>
+        <v>69.25784974881951</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>61.19939504076588</v>
+        <v>59.07439864133543</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>67.24808557257668</v>
+        <v>67.61220901187434</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>70.58956071410145</v>
+        <v>68.87492410339664</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.76176667909362</v>
+        <v>28.03756415366218</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>52.86606661492495</v>
+        <v>49.62577769871108</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>54.80837476260631</v>
+        <v>49.07325032420119</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.89918294100061</v>
+        <v>33.0975743720549</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>52.86684659421505</v>
+        <v>57.93356992152954</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>59.40050075080121</v>
+        <v>55.69344253576308</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.30136242742357</v>
+        <v>8.222635702321977</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>50.88511568217223</v>
+        <v>51.10527975810602</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.15720562246975</v>
+        <v>56.38977973968951</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.24294618498362</v>
+        <v>14.97397437514074</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>71.73698143534749</v>
+        <v>78.94253422153537</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>78.61167371221245</v>
+        <v>83.02635793659488</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>73.42708424866807</v>
+        <v>78.49027956690328</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>87.48584863945619</v>
+        <v>85.97679165434968</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>89.69148760827885</v>
+        <v>89.79242999857914</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.95427174389195</v>
+        <v>44.73845414976414</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>86.46087568049181</v>
+        <v>90.18804445655795</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.53480195027143</v>
+        <v>34.593296306048</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>60.61648616479728</v>
+        <v>59.98155146869789</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>64.81499781251573</v>
+        <v>58.53864053159614</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>14.1702238729895</v>
+        <v>7.86504406698889</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>55.52424954575503</v>
+        <v>54.68552023885221</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>62.36856307592008</v>
+        <v>57.30460390800742</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.25799186661166</v>
+        <v>13.29022396313486</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>82.31108866797237</v>
+        <v>85.92489144974147</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>89.31739139071568</v>
+        <v>88.34713432252852</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>97.15022134326613</v>
+        <v>97.20168627297818</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>106.8046094566839</v>
+        <v>100.8567637828044</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>113.2944675471838</v>
+        <v>107.0833238185979</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>48.54638509581024</v>
+        <v>50.56128468936165</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>102.3562971168049</v>
+        <v>102.9942216733015</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>103.1252842204573</v>
+        <v>102.3095618790182</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.78805533462984</v>
+        <v>25.05043864138592</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.80824651352364</v>
+        <v>40.0348371799552</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.85341084495329</v>
+        <v>44.63976090468509</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.709061451200412</v>
+        <v>6.761537673466094</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>44.2928376725945</v>
+        <v>49.30137615038772</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.91519332084013</v>
+        <v>49.19561897799971</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>14.00354034902488</v>
+        <v>9.221976302213228</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>67.41277994159981</v>
+        <v>75.74241038860004</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.67736705188204</v>
+        <v>72.18288249283185</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>54.80783321657987</v>
+        <v>55.59137947977116</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.49038016423071</v>
+        <v>64.03613875482816</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>61.17437295084933</v>
+        <v>65.35046460374457</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>13.57107298829986</v>
+        <v>17.12856755633218</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.46161595399037</v>
+        <v>35.55243231415118</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.06044049330225</v>
+        <v>32.10711656010388</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.98230105832827</v>
+        <v>27.77752153901033</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.98705405024219</v>
+        <v>55.82807461898076</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>58.79724048486834</v>
+        <v>57.27176049548788</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>11.54501875589889</v>
+        <v>6.212756851575634</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>52.20284763282052</v>
+        <v>50.06486273956641</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>56.07322325765384</v>
+        <v>55.45782726638533</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.47125481909087</v>
+        <v>8.532318668820938</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>73.28277062088434</v>
+        <v>77.2813845687526</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>77.5857085349901</v>
+        <v>82.12959622089949</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>68.91373460149693</v>
+        <v>71.78925584508096</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.14843510887457</v>
+        <v>82.60120203577432</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>82.89971749567619</v>
+        <v>85.59720901831579</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.91612117410217</v>
+        <v>29.82929758860236</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>81.38781490735369</v>
+        <v>85.49816245694211</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>82.02260757349836</v>
+        <v>85.85922532563788</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.48730638003816</v>
+        <v>29.6391831994796</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.58927955440534</v>
+        <v>58.16136612838211</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>61.92010766291362</v>
+        <v>61.5975677837154</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>10.16506634222674</v>
+        <v>5.333976783012925</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>53.73876567173739</v>
+        <v>53.37547766396183</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.86904216171355</v>
+        <v>58.90062257032869</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.33596633943093</v>
+        <v>9.905604711815695</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>80.61958370463176</v>
+        <v>84.90168022597217</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>86.6045274243192</v>
+        <v>88.11920793035608</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>87.68257010123688</v>
+        <v>91.05790933945948</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>97.82134042182136</v>
+        <v>99.25608293908567</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>100.4584201245393</v>
+        <v>101.6533812333472</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.31487774697568</v>
+        <v>32.62827889960844</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>90.09710219701985</v>
+        <v>93.99565830609467</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>90.18479276064986</v>
+        <v>93.43376898904293</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>5.4100990220131</v>
+        <v>11.04377401208126</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.34391675172956</v>
+        <v>9.951771229452497</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.00841147558675</v>
+        <v>13.18557338229894</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-7.170382829181609</v>
+        <v>-3.03765822929952</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.43615078433335</v>
+        <v>14.87804691771841</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.91136608672024</v>
+        <v>17.58903281838475</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-4.648446752638801</v>
+        <v>-1.262637461788845</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.87031039807631</v>
+        <v>24.0094131012285</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.30832984987351</v>
+        <v>24.45015512997458</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.1395191581552</v>
+        <v>31.75414300789872</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.95429539913381</v>
+        <v>38.53410154422992</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>41.41893737325897</v>
+        <v>37.84404352002214</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.71916915996313</v>
+        <v>13.30879673138836</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.33913379829207</v>
+        <v>26.60449998318208</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.22295488699157</v>
+        <v>25.1259583594303</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.95811001215142</v>
+        <v>14.12828785762383</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>35.36803560203197</v>
+        <v>31.87564991580025</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.5446091090532</v>
+        <v>38.116709982118</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.364999526192509</v>
+        <v>3.862196445695204</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.77125817600469</v>
+        <v>30.6758292485949</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.89189011551759</v>
+        <v>40.86093705122508</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.18850854676782</v>
+        <v>6.64717793371581</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.47466364071344</v>
+        <v>49.37476144838205</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>59.14618231951506</v>
+        <v>60.7057789921891</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.38883853589688</v>
+        <v>51.40387629307432</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>62.60203204241192</v>
+        <v>61.25262233087047</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.60839096733282</v>
+        <v>64.45331657859381</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.29191124456685</v>
+        <v>16.72654769379406</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.08224051591624</v>
+        <v>58.65831457870829</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>65.83102498714354</v>
+        <v>63.78417831628863</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.7630857811986</v>
+        <v>20.23435249052391</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.27200254201578</v>
+        <v>40.33539433940901</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>54.60917849298334</v>
+        <v>47.66949622674119</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.52012566152281</v>
+        <v>8.188693673035889</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.77307913822847</v>
+        <v>45.68512252358049</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>52.27990244638791</v>
+        <v>54.80162423277208</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>18.82166264487036</v>
+        <v>12.53401652661315</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.95393901331994</v>
+        <v>68.82772463825759</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>76.68251620868307</v>
+        <v>75.43129881741476</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>81.28931845922773</v>
+        <v>82.26229555213581</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>91.38874990558597</v>
+        <v>90.52895210716758</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.42807151081414</v>
+        <v>90.90954249729259</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.26502109475344</v>
+        <v>35.44143098111127</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>88.37527790437439</v>
+        <v>86.09466887439493</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>93.14304029701671</v>
+        <v>90.00353034153257</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>4.535085727391404</v>
+        <v>8.675352567848037</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.96856370676921</v>
+        <v>11.05102449775787</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.79840593296897</v>
+        <v>10.87839082514332</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-9.235593723376279</v>
+        <v>-4.545282646349904</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.72494409462513</v>
+        <v>13.24411794788472</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>17.00583414151588</v>
+        <v>14.44226632666987</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-6.794654573418132</v>
+        <v>-3.084122776578482</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.52225345830752</v>
+        <v>19.47900320347487</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>24.32623052961058</v>
+        <v>18.00665337249006</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.00753699379539</v>
+        <v>20.39537002825163</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.64377979257615</v>
+        <v>27.4441403444617</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.09445381423802</v>
+        <v>30.03632760654543</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.239220182650527</v>
+        <v>5.759172043708503</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>23.90510017616046</v>
+        <v>18.58130112538859</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.37632681249369</v>
+        <v>17.7256403234146</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>2.10695225275763</v>
+        <v>0.8560413363873494</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>12.18179712511805</v>
+        <v>8.595198953218514</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>20.62360202483179</v>
+        <v>14.21937239578408</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-10.43986901389389</v>
+        <v>-6.187149763233236</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.10905658943478</v>
+        <v>8.184133739681087</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>19.47689171033458</v>
+        <v>15.4968563946848</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-10.37573223535343</v>
+        <v>-6.275907355131331</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.62289176008228</v>
+        <v>18.08168235259208</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.04478521627932</v>
+        <v>31.46926152166811</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.29514261887513</v>
+        <v>19.81659282363454</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>40.30404715526569</v>
+        <v>36.6471300095503</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.0716097508643</v>
+        <v>46.55525752612247</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1.658730673214951</v>
+        <v>3.143121011241025</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>33.14621822092199</v>
+        <v>26.23693496478691</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.76545954810661</v>
+        <v>28.80738134481512</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>9.034510906886178</v>
+        <v>5.580285647227612</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.73748361828155</v>
+        <v>17.13384788809793</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.23228180830883</v>
+        <v>31.18771091290289</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-5.816722814641292</v>
+        <v>-4.585498587277101</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.53004672878929</v>
+        <v>19.3074661962776</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.50024791097921</v>
+        <v>34.6525154784787</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-3.755372851982766</v>
+        <v>-3.238866529843413</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>40.24293138083169</v>
+        <v>32.98979507757198</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>53.63402347637485</v>
+        <v>53.66507006232717</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.78832969649987</v>
+        <v>44.68535107943478</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>66.13950007263907</v>
+        <v>60.092234857813</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>76.39193373378939</v>
+        <v>79.37114697695526</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11.48442387953655</v>
+        <v>9.278645892533547</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>53.84909812712557</v>
+        <v>46.44209748434213</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>59.68751288235902</v>
+        <v>53.74892493136007</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.65835050315806</v>
+        <v>21.00938406984735</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>37.07669083110823</v>
+        <v>29.18144843969397</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.85373185017279</v>
+        <v>40.63182277479154</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.05668148994812</v>
+        <v>7.221161902228058</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>49.86578278182478</v>
+        <v>51.29649588111926</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>57.39087181444623</v>
+        <v>53.03816125164155</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.84781100697143</v>
+        <v>12.4126425413929</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>73.62749474501683</v>
+        <v>73.34333927728994</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>78.19482572705205</v>
+        <v>74.82953115171719</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>72.16482675327843</v>
+        <v>72.11077883627135</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>79.71704077555357</v>
+        <v>78.64269371077393</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>79.31568717419563</v>
+        <v>79.32644882775213</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>38.96783914607326</v>
+        <v>48.1551422785993</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>66.37346943368506</v>
+        <v>68.69556681867482</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>76.43796751749137</v>
+        <v>80.88045631387354</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>14.73267061579321</v>
+        <v>19.65334278857408</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.78636228785225</v>
+        <v>39.27060810562578</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>47.61783958968964</v>
+        <v>40.74488664795958</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>2.250534598057609</v>
+        <v>0.3296107296613542</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.62486952875734</v>
+        <v>38.3831623228475</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>45.0753847532694</v>
+        <v>40.41882199757409</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.875353204141108</v>
+        <v>4.305467639142208</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>62.35036194448671</v>
+        <v>62.96962352410717</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>71.71394927497707</v>
+        <v>68.08281984329129</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>62.02423464790236</v>
+        <v>60.23332815578089</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>72.17228168753466</v>
+        <v>66.58206293340717</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>73.29381365179347</v>
+        <v>67.66006382887974</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.83769193832968</v>
+        <v>31.17654704951699</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>74.41182775938238</v>
+        <v>72.1329953817955</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>76.94033000588288</v>
+        <v>71.00932933187357</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>17.91168631627522</v>
+        <v>22.2421705254888</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.89248944034177</v>
+        <v>41.35529228239304</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.79895376325324</v>
+        <v>46.97115785794612</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.235571758954922</v>
+        <v>4.677142862381451</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.97819461856466</v>
+        <v>49.75250234973633</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>56.17826317589096</v>
+        <v>52.66199671850627</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.07139425317894</v>
+        <v>9.261405094908604</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>75.96245932395581</v>
+        <v>78.04501493640439</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>85.78671205541701</v>
+        <v>82.30766013653837</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>86.45866110703412</v>
+        <v>86.30291158443205</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>94.71381368919825</v>
+        <v>89.47433873346085</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>97.69218961343597</v>
+        <v>92.28320037833214</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.37338862642926</v>
+        <v>38.81269757580485</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>92.3181599546394</v>
+        <v>90.34614957129506</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>95.50311905494942</v>
+        <v>91.51105981639185</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.293181766429818</v>
+        <v>6.723874473762333</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.87579498348499</v>
+        <v>10.60936095495249</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.42599055700516</v>
+        <v>13.45700869379642</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-5.869530755024048</v>
+        <v>-3.300394684252872</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>11.99903343779244</v>
+        <v>9.160325615888333</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.56265881316408</v>
+        <v>13.90354975704222</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-3.895459060324047</v>
+        <v>-1.710582679363878</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.05691116374322</v>
+        <v>20.98164650332589</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.32094456452865</v>
+        <v>22.52853364134692</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>30.43168125843194</v>
+        <v>24.90607367197455</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.22097765772323</v>
+        <v>29.88250420558899</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.20917076892707</v>
+        <v>30.3823519355668</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.925669410909897</v>
+        <v>3.980669447009856</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.55910577870191</v>
+        <v>21.36283335078993</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.28594591638578</v>
+        <v>23.17723853983562</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.32900460986012</v>
+        <v>7.678524250932508</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.90812429415304</v>
+        <v>25.10924454284422</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.77928741362977</v>
+        <v>31.51629094540638</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.1418477410461385</v>
+        <v>2.798546982452613</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.40155698441728</v>
+        <v>22.04109110072842</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.90017370544034</v>
+        <v>32.5491114790885</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.587875996183552</v>
+        <v>4.76012087970161</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.17777554690448</v>
+        <v>38.98395394021195</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.63977260726016</v>
+        <v>49.56625798642</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>37.50012723880037</v>
+        <v>37.88580223389012</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.73509585025162</v>
+        <v>45.25725265114769</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>50.83547622102025</v>
+        <v>51.20256639158141</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5.713987491982031</v>
+        <v>7.695516567360052</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>43.61786391284375</v>
+        <v>43.45202633959943</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>51.59194047710058</v>
+        <v>52.14212315278824</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.17622290306333</v>
+        <v>18.28978287245774</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>42.72778445243816</v>
+        <v>37.93291653079819</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>48.66133881431546</v>
+        <v>45.38208453659888</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.863171894060889</v>
+        <v>10.15114713870857</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.73276203905094</v>
+        <v>38.56638871127812</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.31831782671649</v>
+        <v>48.87236705985943</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.64686042291389</v>
+        <v>17.23176870180779</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>60.45076581662715</v>
+        <v>60.82885434348687</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.15545854322659</v>
+        <v>69.57055070341804</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>66.34613904692148</v>
+        <v>68.13099580144859</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>76.09837487441357</v>
+        <v>76.28622906034499</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>82.79625190872112</v>
+        <v>85.44723544060361</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.68073439814011</v>
+        <v>30.87639053433578</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>70.82021037423463</v>
+        <v>72.6578718217641</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>76.99025917062291</v>
+        <v>79.03212652608499</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2.653033321676791</v>
+        <v>3.561507624072902</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.46999152989919</v>
+        <v>4.465408533160129</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>11.829608026591</v>
+        <v>5.995994561944642</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-9.154386369314178</v>
+        <v>-6.802236505932846</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.76669293803982</v>
+        <v>8.121013127859491</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.01351316017034</v>
+        <v>9.151382552568215</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-13.05854548252666</v>
+        <v>-15.21095310232486</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.96473060819216</v>
+        <v>14.00631890798807</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.2365369147216</v>
+        <v>11.73878363374933</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.71478009185592</v>
+        <v>13.96630792005589</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.39923033717307</v>
+        <v>18.10686824061773</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.41226374184485</v>
+        <v>19.83239491403479</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-7.210579478851063</v>
+        <v>-4.965080959084723</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.94018047620242</v>
+        <v>11.09270705826681</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.72231713864054</v>
+        <v>10.07417253100482</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.56458347969242</v>
+        <v>19.19536439434534</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.65048656160133</v>
+        <v>37.01296137755659</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.98783028075881</v>
+        <v>40.97776586668454</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.4761905323818</v>
+        <v>6.138634360488794</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.22619184733563</v>
+        <v>36.86762262558379</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.04369005072721</v>
+        <v>44.76331858854707</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>7.463231810792987</v>
+        <v>7.397670393079903</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.44161716729191</v>
+        <v>55.09820088017084</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.70228412555124</v>
+        <v>64.78140675280636</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>53.06022772627443</v>
+        <v>55.68957097241429</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.95446415435552</v>
+        <v>64.26892745074454</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>64.79234464330115</v>
+        <v>65.83535038454099</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.18095795667065</v>
+        <v>21.16638132332315</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.59312438452423</v>
+        <v>63.9420089277485</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>61.64838896548517</v>
+        <v>65.83734106824556</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.76702030241526</v>
+        <v>24.69005024910611</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>52.83667533540534</v>
+        <v>47.32843720622771</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>54.95908976875769</v>
+        <v>52.07466248240982</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.2152973450235</v>
+        <v>8.005518254102792</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>47.81733108726495</v>
+        <v>51.63608660356065</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>53.34382555542824</v>
+        <v>57.39177876564487</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.06153864569363</v>
+        <v>9.58905595375899</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.69966425264394</v>
+        <v>73.33401773619373</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>74.8546090038507</v>
+        <v>76.98998650308508</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>82.29894359351353</v>
+        <v>84.23337183400574</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>92.84307421067638</v>
+        <v>92.01594622619689</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>92.37881047876722</v>
+        <v>93.82223796961006</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.2552807520711</v>
+        <v>30.62819419136964</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.64474473912901</v>
+        <v>88.58739282808287</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>82.96596628587073</v>
+        <v>85.64444216990087</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.903606620012333</v>
+        <v>11.7285765238711</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.73736217278169</v>
+        <v>13.78367908378979</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.2422808915937</v>
+        <v>15.3624191087034</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3.564236827518588</v>
+        <v>-2.349247404518756</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.40414331079609</v>
+        <v>13.1465434917702</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>17.06085609661968</v>
+        <v>16.19560541064283</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1.771718420731045</v>
+        <v>0.6174734328495255</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.58659135202503</v>
+        <v>24.53655830978578</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.40485584740039</v>
+        <v>24.13992640564796</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.97286301649428</v>
+        <v>26.81120596496163</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.01518971179627</v>
+        <v>33.81275257119965</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.92099884877777</v>
+        <v>35.57065311575834</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.321656028468</v>
+        <v>13.30781666164875</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.06162049676272</v>
+        <v>26.15651203761481</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.13031062039793</v>
+        <v>29.04876569301315</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.81855712877525</v>
+        <v>4.37455530758303</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>17.65928526581573</v>
+        <v>13.07590306585465</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.30928073650566</v>
+        <v>20.22251835654699</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-7.661246190568608</v>
+        <v>-3.111100452499365</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.96304172693967</v>
+        <v>11.41005519407858</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>19.03919577007466</v>
+        <v>23.01461697520814</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-5.332933906279667</v>
+        <v>-1.719282505440979</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.53267390629062</v>
+        <v>22.33162832828202</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>35.63809787828899</v>
+        <v>37.94008638336992</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.53065878799145</v>
+        <v>24.3852963991329</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>33.89594464440771</v>
+        <v>32.70274232729996</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.55955853541271</v>
+        <v>37.92246825064129</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>2.196953011636381</v>
+        <v>4.242388444262215</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.45680850781085</v>
+        <v>27.69613722367961</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.45754950884454</v>
+        <v>36.34821897564593</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.50730675497175</v>
+        <v>18.03834632820719</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.0783677177551</v>
+        <v>32.60551676591421</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.66728409077536</v>
+        <v>37.53270478876836</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.188054480541819</v>
+        <v>2.18167886385541</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>33.20726093858916</v>
+        <v>29.77926462163524</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.05230081881671</v>
+        <v>37.58610004025485</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.36360676893747</v>
+        <v>9.417182999669627</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>55.2861320900687</v>
+        <v>51.93676119165595</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.36320038560707</v>
+        <v>59.96012076129632</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.37622679206868</v>
+        <v>60.33446034128021</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>72.15535472772306</v>
+        <v>67.09280896574724</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>72.7795004839617</v>
+        <v>69.58160214151357</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.90276122133516</v>
+        <v>29.36629704243806</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>66.53871017657953</v>
+        <v>62.64051536865339</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>68.35769097574703</v>
+        <v>63.91151732076742</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.827221042722488</v>
+        <v>2.884551238060151</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.78741810394931</v>
+        <v>2.893938502862504</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.219884219543619</v>
+        <v>1.205767346316996</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-9.942588165525368</v>
+        <v>-5.025218113189624</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.087661977100566</v>
+        <v>2.066996930989419</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.062379189035997</v>
+        <v>3.588887787799216</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-10.80546240372463</v>
+        <v>-5.693254872761315</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.4534059576817</v>
+        <v>6.785266999147979</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.318716871415827</v>
+        <v>4.621513781893963</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.98700599613867</v>
+        <v>7.17283755366967</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.57543531589551</v>
+        <v>9.645374147690784</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.84989310367771</v>
+        <v>11.94198977389941</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.120168608729905</v>
+        <v>1.20424806993644</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.3813805067067</v>
+        <v>8.244137693049346</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.55502467653612</v>
+        <v>7.96046163655976</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.726199220388583</v>
+        <v>-1.035788414963449</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.593685112044435</v>
+        <v>2.798338353469219</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.22956287842122</v>
+        <v>4.115408220564888</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-9.745788804160174</v>
+        <v>-5.513706159237969</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.438612646954081</v>
+        <v>2.560255550216745</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.326619614548257</v>
+        <v>9.469770713451478</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-9.146916280099315</v>
+        <v>-5.025746943065784</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>14.63414674398522</v>
+        <v>7.871408733094757</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.03370983421664</v>
+        <v>14.16887521769227</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.55226521036861</v>
+        <v>6.546386985357064</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.10728719304215</v>
+        <v>9.319223492673132</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.03583338608846</v>
+        <v>12.370210077873</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-4.94275881979306</v>
+        <v>-3.983029266407723</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.31509892468162</v>
+        <v>9.718028885385053</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>18.49293156125872</v>
+        <v>11.36610436514062</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.25327380988529</v>
+        <v>17.04252172954175</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.64681491862419</v>
+        <v>24.41831413785562</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.35470304954493</v>
+        <v>25.9154007974054</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.249341040408552</v>
+        <v>2.544273143839984</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.34412282275195</v>
+        <v>22.23434231595963</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.21132215342839</v>
+        <v>28.02429403996659</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>5.862349291543691</v>
+        <v>9.118385932460683</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>42.31937202195125</v>
+        <v>37.2644706564574</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>46.25761918283953</v>
+        <v>39.2203977726426</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>49.99186448574456</v>
+        <v>45.45641922554242</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>55.38324117309008</v>
+        <v>45.7642513018389</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>55.32241725954536</v>
+        <v>49.09260028709035</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.65891622384002</v>
+        <v>24.86998155799559</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>48.13589962166898</v>
+        <v>42.73879115001944</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>50.99257021614754</v>
+        <v>44.12688326550617</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.47380768027322</v>
+        <v>22.02347836045241</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.94217366158541</v>
+        <v>32.84193343196051</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>37.51904440308351</v>
+        <v>35.02489568865644</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.988279934847849</v>
+        <v>2.375247423329427</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.07468369776976</v>
+        <v>28.5690117908216</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.83110407566245</v>
+        <v>33.39650127245483</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.000253190315339</v>
+        <v>9.099975120224137</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>47.92309734626718</v>
+        <v>47.02865578785618</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.13621185957705</v>
+        <v>49.17857535400042</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>49.55676040893077</v>
+        <v>51.02673121488596</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>58.41201624578486</v>
+        <v>58.17820514958498</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>61.715714902524</v>
+        <v>61.73795291319291</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.93807919226127</v>
+        <v>32.40219711063583</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>56.09310246687667</v>
+        <v>59.38851212989019</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>61.39486654072238</v>
+        <v>62.69977498281542</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.1459793921722</v>
+        <v>12.42765050134827</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.52758365991168</v>
+        <v>27.14033190139737</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>37.83334410346934</v>
+        <v>30.84923293009548</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.127957861770629</v>
+        <v>-3.080253152073794</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.51133393200207</v>
+        <v>20.24338458139649</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.87851987843705</v>
+        <v>26.15833460083375</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.419648083771417</v>
+        <v>1.416488738177396</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.22115340684288</v>
+        <v>40.13812405076115</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>50.64044806606566</v>
+        <v>48.32543895954833</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>44.69993216375268</v>
+        <v>43.3840973831326</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>57.69432138435668</v>
+        <v>48.93493208658744</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>58.83268672639427</v>
+        <v>50.74794604770972</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>17.83806379374778</v>
+        <v>20.12468691476892</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>58.53553409542273</v>
+        <v>54.99799059353067</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>62.68459109194669</v>
+        <v>58.42685503306247</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.54255201959644</v>
+        <v>25.86552394505282</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>49.10329760075474</v>
+        <v>43.30191990837182</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>54.75332176034117</v>
+        <v>50.2459409443459</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.51640739952176</v>
+        <v>7.191359861558645</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.22054087674189</v>
+        <v>38.65364536169951</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.58104044114744</v>
+        <v>45.87874781753649</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.26215375110801</v>
+        <v>13.73605910733898</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>66.20201240881511</v>
+        <v>65.75756781904221</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>73.58518112857102</v>
+        <v>72.07693643367148</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>79.33083435524026</v>
+        <v>81.68735534660416</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>87.84417618058174</v>
+        <v>84.41552278459707</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>92.28432136450121</v>
+        <v>86.44514339108949</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>40.7536553192633</v>
+        <v>36.21284069641639</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>85.7210497038932</v>
+        <v>77.97328423745175</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>89.10075389720592</v>
+        <v>83.67347066200784</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>23.2717889982445</v>
+        <v>19.72279712426294</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>45.09072749428331</v>
+        <v>39.47037949918661</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.91029791478516</v>
+        <v>43.29483865895159</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.45610596056935</v>
+        <v>8.167737696050949</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.20891210045775</v>
+        <v>44.5109584228488</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>47.69693570376449</v>
+        <v>47.93170163101522</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.21384266155656</v>
+        <v>9.796602111902704</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>62.29842470972503</v>
+        <v>64.4249696282892</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.719339702017</v>
+        <v>66.62415045986839</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>66.72003830018932</v>
+        <v>69.3063450605672</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>74.75815971104534</v>
+        <v>78.14101092634007</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>75.41775514534552</v>
+        <v>78.17501814269215</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.62207812266464</v>
+        <v>22.28323108783031</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>64.78177646843844</v>
+        <v>67.41176942345885</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>67.1302041068935</v>
+        <v>71.51091193983349</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.478637071761</v>
+        <v>15.62444529778817</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>39.04185952176356</v>
+        <v>37.63868433825078</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>47.23810056985828</v>
+        <v>40.84902496413356</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.224305949127949</v>
+        <v>4.869211121475775</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.90115044297529</v>
+        <v>35.56699799126014</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.01745193541112</v>
+        <v>42.5325130665792</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>9.104974035616952</v>
+        <v>6.258395619116726</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.2935149895952</v>
+        <v>55.06324890235965</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>63.56411119988449</v>
+        <v>64.27267264487064</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.03291072451405</v>
+        <v>55.64488737986632</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>66.19864092696299</v>
+        <v>63.76148744541458</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>69.56720490293192</v>
+        <v>63.54208614885994</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>13.77211788754525</v>
+        <v>16.45666483135594</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>61.30156640867666</v>
+        <v>64.40667182522603</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>66.92895209179375</v>
+        <v>69.93281234974481</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.55602582417661</v>
+        <v>18.14646094869329</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>49.27113587470517</v>
+        <v>43.34288791580073</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>54.59154597688996</v>
+        <v>48.79136463492046</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>9.100117028771196</v>
+        <v>4.336117188418452</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.88661606047644</v>
+        <v>45.23842153886422</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>53.66405830766463</v>
+        <v>51.96668555023455</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.87813837128137</v>
+        <v>6.6952926874478</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.85960807471194</v>
+        <v>66.27748944259329</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>77.76171366233706</v>
+        <v>76.63202792025069</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>78.9492018409963</v>
+        <v>80.95469050782822</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>91.2576650490691</v>
+        <v>88.67950708332978</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>94.24735456513017</v>
+        <v>93.84371881740844</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.20498021273497</v>
+        <v>25.96730672388495</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.07203668442094</v>
+        <v>83.74579811884081</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>85.69413678724793</v>
+        <v>88.8027869220001</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>19.98992525525774</v>
+        <v>23.57502604052507</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.1318655709771</v>
+        <v>35.24225825709763</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.58670478501512</v>
+        <v>40.86858015461261</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.253172844615257</v>
+        <v>6.46367572113779</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.75490528250284</v>
+        <v>48.6191719075801</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>52.97999554208958</v>
+        <v>50.84177423808226</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.7381313191125</v>
+        <v>10.75562462903379</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>66.32207796543918</v>
+        <v>65.21771816063446</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>67.43420555171534</v>
+        <v>66.06782242713516</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>66.07894959909352</v>
+        <v>62.8523055691418</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>72.5607596747911</v>
+        <v>64.93537371309884</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>74.07976058027761</v>
+        <v>66.85896395236642</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.34223766056076</v>
+        <v>31.69075689240092</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>63.46381777072733</v>
+        <v>60.67905199110712</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>71.4923195509931</v>
+        <v>71.05075914665042</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>17.83948874581958</v>
+        <v>18.9479490251724</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.6843205425771</v>
+        <v>39.68376470680722</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>48.73245240668963</v>
+        <v>41.99812874241481</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>6.491106580970094</v>
+        <v>1.215261860180135</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>40.84977097182508</v>
+        <v>37.78026059025224</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.74977770393463</v>
+        <v>43.42586278843294</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.429107778730534</v>
+        <v>4.543189734405033</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.28709984902244</v>
+        <v>61.46200663242741</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>71.35622749726653</v>
+        <v>71.22794831849507</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>63.65519212725614</v>
+        <v>62.4998445361337</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>77.0721177573586</v>
+        <v>69.39682763894795</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>77.78330015321325</v>
+        <v>70.71324760945151</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.35249167177388</v>
+        <v>23.81460576605004</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>76.80914146684577</v>
+        <v>73.16121132018614</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>81.59954069383697</v>
+        <v>77.54966666697155</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.40546288547223</v>
+        <v>22.55852620973585</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>50.70250595691824</v>
+        <v>45.83712730800157</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>56.20139834346331</v>
+        <v>49.16958644310216</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.11909079817201</v>
+        <v>2.909743305439417</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>49.91743665422153</v>
+        <v>45.62963132836624</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>57.15110812081178</v>
+        <v>51.40599648925118</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>13.70146503279711</v>
+        <v>6.349411064265141</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>75.71667150484721</v>
+        <v>73.79013400143492</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.87857029937453</v>
+        <v>79.30995994251667</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>88.67473142021095</v>
+        <v>88.94036195099113</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>98.47571766981693</v>
+        <v>93.03866375398491</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>102.7668093147343</v>
+        <v>95.53225840978428</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.47842060971362</v>
+        <v>29.48380745110059</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>94.83054826648444</v>
+        <v>88.91790638673322</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>97.96513247932282</v>
+        <v>93.05864471301047</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.50710677806621</v>
+        <v>26.59359626593269</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>38.9838772975879</v>
+        <v>35.68192471785233</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41.93654468750663</v>
+        <v>36.91126966044303</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.77214097125171</v>
+        <v>21.06761551278266</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>54.38092267139717</v>
+        <v>58.80585415073688</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>57.2841518997315</v>
+        <v>58.35393433306371</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.49176233930157</v>
+        <v>16.66823697033659</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>62.25041904683171</v>
+        <v>64.30168028765851</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.47296930222517</v>
+        <v>61.51666930866285</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>63.25421861759476</v>
+        <v>61.87137374537449</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>69.03502876402284</v>
+        <v>68.91244691279815</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>72.70572232859101</v>
+        <v>68.87995979594677</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.07016292853713</v>
+        <v>41.12796817449412</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>61.36770416471141</v>
+        <v>60.10226736123803</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>69.09279325933365</v>
+        <v>68.81146761921423</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.90952939548194</v>
+        <v>22.99431589199725</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.60279521234982</v>
+        <v>38.15160577386359</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>48.57157445768266</v>
+        <v>43.12054663642712</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.69915181457594</v>
+        <v>30.20732252245676</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>55.00455347889702</v>
+        <v>56.04666265094571</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>64.37493874815129</v>
+        <v>63.28161515440701</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.83020323635166</v>
+        <v>10.12960187172388</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>59.96605121547104</v>
+        <v>58.62773968348379</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>70.30080472662542</v>
+        <v>69.31332392072926</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>63.09490902534679</v>
+        <v>59.68769401504819</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>74.73831696522383</v>
+        <v>68.15847369040074</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>76.45376532729617</v>
+        <v>70.6834459392023</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.58598303503026</v>
+        <v>30.58239840499547</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>73.2719292003333</v>
+        <v>70.13537447459308</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>79.19618656952754</v>
+        <v>76.60255872215143</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.3675119414601</v>
+        <v>28.33234507001373</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.27998324128336</v>
+        <v>47.15196042458555</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.73498093117092</v>
+        <v>48.87968838542586</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>32.96906543412255</v>
+        <v>34.32478119807169</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.71361901752825</v>
+        <v>65.47169638228631</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>71.63270105912763</v>
+        <v>69.64458463647452</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.74115665101746</v>
+        <v>13.60715648029687</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>75.72267163852555</v>
+        <v>74.29304946367979</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>83.58593239145596</v>
+        <v>78.82929480829711</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>90.32872047134337</v>
+        <v>89.32199302943575</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>96.38620766343497</v>
+        <v>94.11294039289959</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>103.4050960227031</v>
+        <v>99.01447222005814</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.95344265846201</v>
+        <v>41.06187306365173</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>92.03434954776044</v>
+        <v>90.59733501162773</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>98.01282328086947</v>
+        <v>94.98902377301496</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.73990256807772</v>
+        <v>20.36050057440777</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.62895909439409</v>
+        <v>38.93763278290101</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.86589304548939</v>
+        <v>44.08761890149124</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.873255793427266</v>
+        <v>5.21936538169156</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.098022202796</v>
+        <v>39.39881172337838</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>41.50296202857993</v>
+        <v>43.9938470803499</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.09123659116647</v>
+        <v>5.730353421594266</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>56.83493484284124</v>
+        <v>61.3831788248003</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.95013468859128</v>
+        <v>63.97717888790962</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>64.95081681605515</v>
+        <v>68.56813444010706</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>71.76172373986365</v>
+        <v>74.8984776775298</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>73.7932143728556</v>
+        <v>77.43471787030472</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.78490230600516</v>
+        <v>16.09008414918854</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>62.85210688574857</v>
+        <v>66.34865377805778</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>68.36379548437294</v>
+        <v>70.07711849388524</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.88588016246741</v>
+        <v>13.49894884379302</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.03771898049153</v>
+        <v>36.98995077658617</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>45.08393438612518</v>
+        <v>39.06280393592922</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-0.7573761851932801</v>
+        <v>1.246689752970973</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.52486587443331</v>
+        <v>34.4197397419818</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.65481835650648</v>
+        <v>39.45277212122809</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>3.010493518255021</v>
+        <v>1.920043075581294</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.9807706888845</v>
+        <v>54.33493066324077</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.63774409655962</v>
+        <v>62.37917568686414</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>53.53216162497272</v>
+        <v>56.47336663874371</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>64.59897577547406</v>
+        <v>63.58534018747191</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>67.35080817206693</v>
+        <v>64.55867402479625</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.053918377008795</v>
+        <v>10.93849901363382</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>58.39637122896121</v>
+        <v>60.72806038607907</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>66.59549330041928</v>
+        <v>67.68662649865954</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>20.17143371391857</v>
+        <v>15.38907134259319</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>47.60941414513245</v>
+        <v>41.6976650753381</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>54.74742844526351</v>
+        <v>46.90804158106005</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.033363311112407</v>
+        <v>3.21528131667333</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>42.25396157640051</v>
+        <v>45.25597090093898</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>50.93572611156701</v>
+        <v>51.43768595417208</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>8.347827934073898</v>
+        <v>4.813076584552235</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>66.13414079460206</v>
+        <v>67.45750330993395</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>76.82177037330538</v>
+        <v>74.59239814116815</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>79.6058196511684</v>
+        <v>82.01584455457987</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>89.99804451286822</v>
+        <v>89.35376436625532</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>94.98053809201096</v>
+        <v>95.43576089829492</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>19.69657064462756</v>
+        <v>19.87772734882935</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>80.34399105901201</v>
+        <v>82.3461414017911</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>87.92671342908805</v>
+        <v>90.67113326833856</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>11.6432543595626</v>
+        <v>14.76205118536824</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.04747931126622</v>
+        <v>17.71226183256033</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.96557538324616</v>
+        <v>18.2765958519962</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2.549711255675884</v>
+        <v>-2.32653242660173</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.52195270623137</v>
+        <v>18.34598332269308</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.93374851366256</v>
+        <v>20.88347163873001</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1.682540041190375</v>
+        <v>1.445735622537995</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.49246693471285</v>
+        <v>30.23456786562502</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.71409481093997</v>
+        <v>30.79197495240088</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.09427799306445</v>
+        <v>34.62745030821649</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>43.03439181056295</v>
+        <v>38.57814142822454</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>46.1973089656631</v>
+        <v>40.67739549868775</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.45026713314019</v>
+        <v>17.65617567037386</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.36006786880566</v>
+        <v>28.1406770741997</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.20129316551047</v>
+        <v>30.86887629440894</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.58889487369283</v>
+        <v>13.5375795613828</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.6225581502114</v>
+        <v>32.51315615268349</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>42.80630130194832</v>
+        <v>37.20452587901963</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>7.218725030354907</v>
+        <v>3.882665286823936</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.42262043729782</v>
+        <v>31.5934181375481</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>39.79924715315632</v>
+        <v>41.01473268371401</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>11.1768566961466</v>
+        <v>7.224307643710596</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>49.69117231938817</v>
+        <v>50.88285010831218</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.55214434969847</v>
+        <v>61.72401404347277</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.64555330152787</v>
+        <v>51.90475222017593</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.63846640511181</v>
+        <v>56.25109442736608</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>64.24414892882544</v>
+        <v>65.15667096253634</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.10266242893424</v>
+        <v>13.20386948258491</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.45454886537775</v>
+        <v>55.85804426136862</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.12457008227931</v>
+        <v>63.14266320467869</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.90459423248113</v>
+        <v>21.70695395831013</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>47.00421041423327</v>
+        <v>43.27375631979891</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>53.3469936193238</v>
+        <v>48.72773776577199</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.76924069133162</v>
+        <v>8.820632981126955</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.12621726178182</v>
+        <v>43.64400224836957</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>51.22997280808787</v>
+        <v>53.99880311222167</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.14215582100544</v>
+        <v>16.78587325549178</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>67.24072793654274</v>
+        <v>68.72509840452679</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>75.42851287407078</v>
+        <v>76.69290485682771</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.44618746670267</v>
+        <v>77.63913000397852</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>80.11838484898614</v>
+        <v>76.63689605960761</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>90.22754756763194</v>
+        <v>89.76307011077839</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.41857984287927</v>
+        <v>31.00761124877787</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.355560141615</v>
+        <v>77.99422067108839</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>85.99419565617639</v>
+        <v>86.30775505587897</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>8.822315499967253</v>
+        <v>15.06386367325252</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.05209162919451</v>
+        <v>18.6128467267038</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.03110619749022</v>
+        <v>19.15690958109985</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-3.148232800825632</v>
+        <v>-0.8941238850189563</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.37031439159938</v>
+        <v>24.55800334964259</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.48930260155697</v>
+        <v>27.26331203700519</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-1.777049101318099</v>
+        <v>2.797423346012224</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.33821425825165</v>
+        <v>36.56830135477763</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.93999901573088</v>
+        <v>36.23314086511325</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.39177256785401</v>
+        <v>43.02786082812617</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>49.64742681444515</v>
+        <v>50.68342110493538</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.45867650554223</v>
+        <v>51.91661211238425</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.3817602505329</v>
+        <v>19.65936291973992</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.00420753458955</v>
+        <v>38.88829174357957</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>48.30028901652094</v>
+        <v>44.81825786584403</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>9.55127752197453</v>
+        <v>7.807571527311119</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.70770514771637</v>
+        <v>20.53287016902121</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.93613273596854</v>
+        <v>31.93366984375993</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.803459645185551</v>
+        <v>3.330802101081339</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.38872009134747</v>
+        <v>23.2537200283335</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.26027528059977</v>
+        <v>41.67136794375047</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.6900365754189188</v>
+        <v>-2.127931194065745</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>40.1432248025659</v>
+        <v>36.58443684136422</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>53.09046936907958</v>
+        <v>56.72910060592891</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.6630367352233</v>
+        <v>43.77945027985567</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>58.55628110726948</v>
+        <v>55.08051039451566</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>62.90953042896211</v>
+        <v>62.6050601313723</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.87202677258108</v>
+        <v>11.04628698608076</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>56.05930484349979</v>
+        <v>52.77044874495584</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>63.13800931709044</v>
+        <v>62.27124754810933</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.01957417445148</v>
+        <v>15.56023567369238</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>33.40604147825351</v>
+        <v>30.2885230825681</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.35780386960073</v>
+        <v>37.89021630462162</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>9.903532247122737</v>
+        <v>7.134062977668886</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>37.00900581066149</v>
+        <v>31.34162380003387</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.49218501908076</v>
+        <v>45.82476963396032</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4.750696623784162</v>
+        <v>1.3877046884576</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54.05067031037118</v>
+        <v>50.52302072827899</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>63.49574936833599</v>
+        <v>64.38752925787421</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>70.91610938795193</v>
+        <v>71.78524542169862</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>76.67701851547292</v>
+        <v>76.89838296739262</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>86.03154948587672</v>
+        <v>85.91014789729329</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.07420372309356</v>
+        <v>22.04733764308477</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>71.94593644574208</v>
+        <v>68.76999730926558</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>79.09409914910049</v>
+        <v>78.08713832997759</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.0374096028782</v>
+        <v>24.86927954518568</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.56615792989768</v>
+        <v>36.73899906404971</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.91222190151358</v>
+        <v>40.06963408598182</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.57374060424112</v>
+        <v>7.378083769549583</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.43656881412711</v>
+        <v>50.01473103213759</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>52.51799043236835</v>
+        <v>51.4469115885004</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>17.90457998659607</v>
+        <v>12.92291978825709</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>66.87455668196407</v>
+        <v>70.07461189346515</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>67.704052465152</v>
+        <v>68.97429641237109</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>67.3532725271444</v>
+        <v>62.53769212965602</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>73.53433573758633</v>
+        <v>71.60221182669068</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>76.42340086992918</v>
+        <v>72.61779544682184</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.57267934310278</v>
+        <v>43.66095443109501</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>60.32663864287389</v>
+        <v>63.23490849169102</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>75.90732172199108</v>
+        <v>77.05753279603323</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>22.48698821535953</v>
+        <v>27.34072141964002</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.22061891404482</v>
+        <v>42.96424315740168</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>50.57734805956305</v>
+        <v>44.46096430651494</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.6480006511636</v>
+        <v>6.458213014177517</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.10968038892533</v>
+        <v>40.17833554276597</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>49.44808270969918</v>
+        <v>44.26912920857514</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>13.4464096443499</v>
+        <v>8.722949924431934</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.89974378070838</v>
+        <v>62.07483316433634</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>68.6360470505942</v>
+        <v>68.55459260114461</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>61.70541823421765</v>
+        <v>60.64737415313638</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>70.82875615934567</v>
+        <v>65.72336211332896</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>73.41034683865023</v>
+        <v>68.28313342370996</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.37942291085867</v>
+        <v>30.20877146246627</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>68.05882373340866</v>
+        <v>69.64420706742195</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>77.01811010037174</v>
+        <v>71.74774990308394</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.59604432188495</v>
+        <v>26.8368960100301</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>48.91042777850669</v>
+        <v>45.92407648443501</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>54.80823702233702</v>
+        <v>48.10232302956636</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.02726279747126</v>
+        <v>8.187814433151054</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.88352208767053</v>
+        <v>49.26824064682395</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>57.53622315864182</v>
+        <v>52.5113839520255</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>15.76135550381463</v>
+        <v>9.612717838172802</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>72.12976230808754</v>
+        <v>74.66898258132031</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>80.01126916649933</v>
+        <v>79.33335374742549</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>86.93769095852193</v>
+        <v>86.47873484097082</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>91.82009534553785</v>
+        <v>89.25810952810863</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>97.53419932909915</v>
+        <v>91.01438938402086</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>37.25590529576698</v>
+        <v>38.54424207672025</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>85.35601111928926</v>
+        <v>85.33257751815491</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>94.88553351515858</v>
+        <v>87.27609413938029</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.55173755913042</v>
+        <v>19.29787720904726</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.14958191276885</v>
+        <v>37.3614924094381</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.57252667927581</v>
+        <v>40.75624769274884</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.822542367024276</v>
+        <v>7.13847121055575</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>38.94210129147967</v>
+        <v>43.47168879137115</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.92513242281949</v>
+        <v>44.72079468002955</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>9.554657136933914</v>
+        <v>6.676587897627957</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>55.61314016448171</v>
+        <v>60.50919490504628</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>57.16831163064668</v>
+        <v>62.33729125846705</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>61.39502665173191</v>
+        <v>64.82069737340944</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>72.08582740213896</v>
+        <v>76.25232373048973</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>70.86774908773245</v>
+        <v>71.7385836649978</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.90844313029861</v>
+        <v>13.91256309740659</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>62.85821387606686</v>
+        <v>65.10984946450134</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>64.73910275385875</v>
+        <v>65.88447951501263</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>18.55570974038034</v>
+        <v>13.30305747236618</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.3899808157593</v>
+        <v>37.40885914953505</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>47.90130105522753</v>
+        <v>38.61899072576138</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.288600394994578</v>
+        <v>3.742838098208384</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>37.46755538700437</v>
+        <v>38.70210471927714</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>44.02919611755557</v>
+        <v>42.05349191315817</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>8.013642692945256</v>
+        <v>5.265799964242959</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>54.47960900631415</v>
+        <v>58.06216571846519</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>64.80606072481942</v>
+        <v>66.77183871803084</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>57.54094276541147</v>
+        <v>60.18976777489584</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>70.90922346184877</v>
+        <v>67.53895181284065</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>71.87653134520787</v>
+        <v>66.23001519921519</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.27948321712565</v>
+        <v>11.5290171144764</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>66.9914847808777</v>
+        <v>68.16074916346415</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>70.94977056676862</v>
+        <v>70.22104464726104</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>19.61634899734046</v>
+        <v>15.03089071399107</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>45.31873564709754</v>
+        <v>40.93990291416284</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.47552504970417</v>
+        <v>45.13955952331155</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.333744418702899</v>
+        <v>3.866067641695132</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>43.12891293126355</v>
+        <v>46.42288675003788</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>50.67013480628515</v>
+        <v>50.85945396600393</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>8.164720193442291</v>
+        <v>5.596088152420592</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>63.73339218287468</v>
+        <v>66.71614744645132</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>74.75098241467983</v>
+        <v>73.52407154665809</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>76.74736015826043</v>
+        <v>79.56030063281767</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>88.77266089972817</v>
+        <v>85.83663078929868</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>92.96782910985199</v>
+        <v>91.86513964878725</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>19.82286148574175</v>
+        <v>17.10754910798438</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>79.74576306578953</v>
+        <v>76.78488345719151</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>85.11954892182192</v>
+        <v>84.75655029080994</v>
       </c>
     </row>
   </sheetData>
